--- a/Descriptor.xlsx
+++ b/Descriptor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redescolmex-my.sharepoint.com/personal/miguel_gonzalez_colmex_mx/Documents/Drive/Publicaciones___/EMCR_EVR_EM/Bases_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="374" documentId="8_{A3BE4173-8134-4E36-81E6-E4498609BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6617D22-C4C1-4A18-BE81-17C5062EFB4A}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{A3BE4173-8134-4E36-81E6-E4498609BFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62ADCBC6-4B7E-4BBE-86AE-FB5952AA0161}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5CCC2C4F-BE5B-4862-BA36-C64CE8B8B783}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8310" uniqueCount="8181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8310" uniqueCount="8179">
   <si>
     <t>EMCR</t>
   </si>
@@ -24557,12 +24557,6 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Diferencia porcentual entre la EVR y la EMCR</t>
-  </si>
-  <si>
-    <t>Diferencia porcentual entre la EM y la EMCR</t>
-  </si>
-  <si>
     <t>Códigos INE (ver la página INE_códigos) + Total</t>
   </si>
   <si>
@@ -24572,16 +24566,16 @@
     <t>Nombre de las provincias (ver la página INE_códigos) + Total</t>
   </si>
   <si>
-    <t>Diferencia porcentual entre la EVR  con la EMCR</t>
-  </si>
-  <si>
-    <t>Diferencia porcentual entre la EM con la EMCR</t>
-  </si>
-  <si>
     <t>Nombre del municipio (ver la página INE_códigos) + Total</t>
   </si>
   <si>
     <t>* Las ciudades autónomas de Ceuta y Melilla fueron eliminadas a nivel de CC.AA. Y provincias.</t>
+  </si>
+  <si>
+    <t>Diferencia porcentual entre la EMCR y la EVR</t>
+  </si>
+  <si>
+    <t>Diferencia porcentual entre la EMCR y la EM</t>
   </si>
 </sst>
 </file>
@@ -25060,7 +25054,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8174</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25071,7 +25065,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8175</v>
+        <v>8173</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25134,7 +25128,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8172</v>
+        <v>8177</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>82</v>
@@ -25145,7 +25139,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8173</v>
+        <v>8178</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>82</v>
@@ -25210,7 +25204,7 @@
         <v>88</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8174</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25221,7 +25215,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8176</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25360,7 +25354,7 @@
         <v>90</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8174</v>
+        <v>8172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25371,7 +25365,7 @@
         <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8179</v>
+        <v>8175</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -25434,7 +25428,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8172</v>
+        <v>8177</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>82</v>
@@ -26320,7 +26314,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>8180</v>
+        <v>8176</v>
       </c>
       <c r="G54">
         <v>2001</v>
